--- a/data/trans_bre/CAGE_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/CAGE_R-Dificultad-trans_bre.xlsx
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.113267158876721</v>
+        <v>-2.119747468419745</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.797179797336025</v>
+        <v>-3.713379827517142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.013026358223589</v>
+        <v>-3.01513537768013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.151967021016845</v>
+        <v>-5.807019738687818</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9691896453592824</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.9059683735791912</v>
+        <v>-0.9018548344636013</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1847465823715149</v>
+        <v>-0.2143379165373258</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.679437829458091</v>
+        <v>-1.626912836975283</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.147427873829545</v>
+        <v>-1.050860034651493</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4709007873761026</v>
+        <v>0.7262279167963441</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4013082856677042</v>
+        <v>0.3361628454813753</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>-0.6476525148269098</v>
+        <v>-0.5878926064048295</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4163065874453853</v>
+        <v>0.623798714565154</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>0.000751063054256311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.7702087164620262</v>
+        <v>-0.770208716462026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4912206831933779</v>
@@ -745,7 +745,7 @@
         <v>0.001305030996283451</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4240641283931285</v>
+        <v>-0.4240641283931284</v>
       </c>
     </row>
     <row r="8">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9856054735403822</v>
+        <v>-1.112642784267372</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.954873426110709</v>
+        <v>-2.865969296320458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.747856774488969</v>
+        <v>-0.7473408188113764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.613917030497403</v>
+        <v>-2.632925559379508</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
@@ -773,11 +773,9 @@
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="I8" s="6" t="n">
-        <v>-0.800274319374722</v>
-      </c>
+      <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.9189583431362137</v>
+        <v>-0.9165463180085665</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +786,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2829674872658062</v>
+        <v>0.2661935097020121</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.899087935860683</v>
+        <v>-0.8889540838821294</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6431398051070023</v>
+        <v>0.7055469542218451</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8891108172284772</v>
+        <v>0.8284033694867023</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.356574000866743</v>
+        <v>1.468228266811208</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.6960164156129172</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>3.859251426764335</v>
-      </c>
+        <v>-0.5170546250623157</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>1.347962463529409</v>
+        <v>0.964131302926075</v>
       </c>
     </row>
     <row r="10">
@@ -856,26 +852,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.304319241270329</v>
+        <v>-1.32577648615165</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.093288204520539</v>
+        <v>-2.30976081817248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.295171328280656</v>
+        <v>-1.295889643259145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.989377193386832</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
+        <v>-2.250194305463692</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H11" s="6" t="n">
-        <v>-0.9299537527845332</v>
+        <v>-0.9280722303573745</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7608348576887649</v>
+        <v>-0.8339037145250399</v>
       </c>
     </row>
     <row r="12">
@@ -886,26 +884,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.129617411691647</v>
+        <v>-0.1140561854187984</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.09682881268966052</v>
+        <v>-0.2019732310878501</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5145971789695741</v>
+        <v>0.4789033638419716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.992814657003478</v>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
+        <v>2.552026146818362</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.5094177315796423</v>
+      </c>
       <c r="H12" s="6" t="n">
-        <v>0.18628016962936</v>
+        <v>-0.01248719602495406</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.115760106466748</v>
+        <v>1.75225853107096</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.890670822166726</v>
+        <v>2.578856653638554</v>
       </c>
     </row>
     <row r="13">
@@ -929,7 +929,7 @@
         <v>-1.445444073768141</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1996945496054441</v>
+        <v>0.199694549605443</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1256432887107873</v>
@@ -941,7 +941,7 @@
         <v>-0.6400457788210785</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.08746070829867764</v>
+        <v>0.08746070829867716</v>
       </c>
     </row>
     <row r="14">
@@ -952,24 +952,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.072540807721183</v>
+        <v>-1.022419902406668</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.367890975782076</v>
+        <v>-3.579504744526103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.332026057610315</v>
+        <v>-3.278417310198112</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.92177631959745</v>
+        <v>-1.904562861132499</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.9235214646847507</v>
+        <v>-0.9146174449670417</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6782248109360858</v>
+        <v>-0.6621673772531472</v>
       </c>
     </row>
     <row r="15">
@@ -980,24 +980,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6018902487215639</v>
+        <v>0.601676168453526</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.8069222685537034</v>
+        <v>-0.7891307208839528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.009294500966462626</v>
+        <v>0.01170132344258548</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.555552935044646</v>
+        <v>3.511937228258689</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>0.4307275157745235</v>
+        <v>0.2404772652727354</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.389187890001189</v>
+        <v>2.519352330263966</v>
       </c>
     </row>
     <row r="16">
@@ -1044,28 +1044,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8828913698801195</v>
+        <v>-0.8504507941632476</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.390985217281658</v>
+        <v>-2.364936853149836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.491300077708758</v>
+        <v>-1.501053598348345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.719250540718724</v>
+        <v>-1.580469710719981</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8640168469859196</v>
+        <v>-0.8790276291308879</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.9741703442231774</v>
+        <v>-0.9753402884466096</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8201602657590464</v>
+        <v>-0.8307271240973961</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5825040061551827</v>
+        <v>-0.5653917467544511</v>
       </c>
     </row>
     <row r="18">
@@ -1076,28 +1076,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1415049025639115</v>
+        <v>-0.1843886846163695</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.366478391116404</v>
+        <v>-1.30487312806177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.4915213332027944</v>
+        <v>-0.5304725392006076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8013626798531329</v>
+        <v>0.8183282327323101</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1669349011287866</v>
+        <v>-0.2520317202539767</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.8331906439431873</v>
+        <v>-0.8113890889307617</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4143432332197182</v>
+        <v>-0.4426250720666383</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.460013371221979</v>
+        <v>0.4338154455120594</v>
       </c>
     </row>
     <row r="19">
